--- a/boundryValueTest/dataTest/TestData.xlsx
+++ b/boundryValueTest/dataTest/TestData.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\TestLeaf - Priyaa\WorkSpace\boundryValueTest\dataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\TestLeaf - Priyaa\git local rep\boundryValueTest\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C9BD9A-8CD5-4D13-A874-45F3D895E552}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D9D803-FD3B-4C75-B74A-7339F86585DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="64">
   <si>
     <t>Username</t>
   </si>
@@ -74,6 +81,150 @@
   </si>
   <si>
     <t>should fail but pass</t>
+  </si>
+  <si>
+    <t>abcrail1</t>
+  </si>
+  <si>
+    <t>Abcdefghij</t>
+  </si>
+  <si>
+    <t>abcdefghij@smail.com</t>
+  </si>
+  <si>
+    <t>Abcdefg890</t>
+  </si>
+  <si>
+    <t>Abcdefg89012</t>
+  </si>
+  <si>
+    <t>Abcdefg89013</t>
+  </si>
+  <si>
+    <t>Ab3</t>
+  </si>
+  <si>
+    <t>Abc4</t>
+  </si>
+  <si>
+    <t>Abcdefgh</t>
+  </si>
+  <si>
+    <t>Abcdefghijkl</t>
+  </si>
+  <si>
+    <t>Abcdefghijklmn</t>
+  </si>
+  <si>
+    <t>Abcdefghij123456789</t>
+  </si>
+  <si>
+    <t>Abcdefghij1234567890</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>Abcdefghij12345678901</t>
+  </si>
+  <si>
+    <t>ab@sma.com</t>
+  </si>
+  <si>
+    <t>abc@sma.com</t>
+  </si>
+  <si>
+    <t>abcd@smail.com</t>
+  </si>
+  <si>
+    <t>abcdef@smail.com</t>
+  </si>
+  <si>
+    <t>abcdefgh@smail.com</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz1234567@smail.com</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz12345678@smail.com</t>
+  </si>
+  <si>
+    <t>a@sma.com</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz123456789@smail.com</t>
+  </si>
+  <si>
+    <t>yz1</t>
+  </si>
+  <si>
+    <t>abcrail12</t>
+  </si>
+  <si>
+    <t>abcrail1234</t>
+  </si>
+  <si>
+    <t>abcrail123456</t>
+  </si>
+  <si>
+    <t>abcrail12345678</t>
+  </si>
+  <si>
+    <t>abcrail1234567890123456789012</t>
+  </si>
+  <si>
+    <t>abcrail12345678901234567890123</t>
+  </si>
+  <si>
+    <t>yz</t>
+  </si>
+  <si>
+    <t>abcrail123456789012345678901234</t>
+  </si>
+  <si>
+    <t>Valid length of all Input Fields</t>
+  </si>
+  <si>
+    <t>Invalid length of password 8 char &lt;= password &lt;= 15 char</t>
+  </si>
+  <si>
+    <t>Invalid length of security answer 3 char &lt;= security answer &lt;= 20 char</t>
+  </si>
+  <si>
+    <t>Invalid length of email 10 char &lt;= email &lt;= 70 char</t>
+  </si>
+  <si>
+    <t>Invalid length of username 3 char &lt;= username &lt;= 30 char</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Page says 3 to 35</t>
+  </si>
+  <si>
+    <t>Page says 8 to 15(atleast one small &amp; one capital alphabet and number)</t>
+  </si>
+  <si>
+    <t>Page says 3 to 20 character.Only letter and number</t>
+  </si>
+  <si>
+    <t>Username takes only 31 characters</t>
+  </si>
+  <si>
+    <t>Password takes only upto 15 characters even if we post &gt; 15 char length</t>
+  </si>
+  <si>
+    <t>Page says 10 to 70 Character</t>
+  </si>
+  <si>
+    <t>Security Answer takes only upto 20 characters even if we post &gt; 20 char length</t>
+  </si>
+  <si>
+    <t>Email takes only upto 70 characters even if we post &gt;70 char length</t>
   </si>
 </sst>
 </file>
@@ -103,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,21 +277,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -416,132 +704,611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="49.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="30.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="49.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
+      <c r="B33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A22:A41">
+    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:D41">
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B41">
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C41">
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D41">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -549,162 +1316,922 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB45C5E-9D79-4ACE-81CD-FE49F5E33BD0}">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="34.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.1796875" style="3" customWidth="1"/>
+    <col min="7" max="8" width="17.90625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.90625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64978C50-4711-4E9E-84C1-343C985FB31D}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection sqref="A1:D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="5" max="5" width="59.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16">
+        <f>LEN(C20)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <f>LEN(D30)</f>
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A21:A40">
+    <cfRule type="uniqueValues" dxfId="10" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:E40">
+    <cfRule type="uniqueValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B40">
+    <cfRule type="uniqueValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C40">
+    <cfRule type="uniqueValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D40">
+    <cfRule type="uniqueValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E40">
+    <cfRule type="uniqueValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>